--- a/Продукт/Комментарии.xlsx
+++ b/Продукт/Комментарии.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="36" windowWidth="10500" windowHeight="4800"/>
+    <workbookView xWindow="288" yWindow="36" windowWidth="10500" windowHeight="4800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Вводная информация" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="226">
   <si>
     <t>№</t>
   </si>
@@ -688,6 +688,12 @@
   </si>
   <si>
     <t>предложение вариантов связи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чат - #general </t>
+  </si>
+  <si>
+    <t>Должно быть сопряжено с Discord?.. Или нет?..</t>
   </si>
 </sst>
 </file>
@@ -1091,7 +1097,7 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1138,9 +1144,9 @@
   </sheetPr>
   <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2420,6 +2426,12 @@
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="11">
         <v>57</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
